--- a/biology/Médecine/Triptoréline/Triptoréline.xlsx
+++ b/biology/Médecine/Triptoréline/Triptoréline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triptor%C3%A9line</t>
+          <t>Triptoréline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La triptoréline, vendue entre autres sous les noms de marque Décapeptyl[1].
+La triptoréline, vendue entre autres sous les noms de marque Décapeptyl.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triptor%C3%A9line</t>
+          <t>Triptoréline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour l'endométriose, les fibromes, le cancer de la prostate, la puberté précoce et l'hypersexualité masculine avec déviation sexuelle sévère[1],[2]. Elle a également été utilisé pour retarder la puberté chez les personnes atteintes de dysphorie de genre [3]. Elle est administrée par injection dans un muscle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour l'endométriose, les fibromes, le cancer de la prostate, la puberté précoce et l'hypersexualité masculine avec déviation sexuelle sévère,. Elle a également été utilisé pour retarder la puberté chez les personnes atteintes de dysphorie de genre . Elle est administrée par injection dans un muscle.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triptor%C3%A9line</t>
+          <t>Triptoréline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les bouffées vasomotrices, les troubles sexuels, la douleur au point d'injection et l'hyperglycémie, d'autres effets secondaires peuvent être l'apoplexie hypophysaire, l'irritabilité, les caillots sanguins et l'anaphylaxie [1]. L'utilisation pendant la grossesse peut nuire au bébé[1]. C'est une hormone libérant des gonadotrophines qui diminue la production d'androgènes et d'œstrogènes [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les bouffées vasomotrices, les troubles sexuels, la douleur au point d'injection et l'hyperglycémie, d'autres effets secondaires peuvent être l'apoplexie hypophysaire, l'irritabilité, les caillots sanguins et l'anaphylaxie . L'utilisation pendant la grossesse peut nuire au bébé. C'est une hormone libérant des gonadotrophines qui diminue la production d'androgènes et d'œstrogènes .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triptor%C3%A9line</t>
+          <t>Triptoréline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La triptoréline a été brevetée en 1975 et approuvée pour un usage médical en 1986[4]. Au Royaume-Uni, une dose de 3,75 mg coûte au NHS environ 82 livres sterling à partir de 2021[2]. Ce montant aux États-Unis coûte environ 860 USD[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La triptoréline a été brevetée en 1975 et approuvée pour un usage médical en 1986. Au Royaume-Uni, une dose de 3,75 mg coûte au NHS environ 82 livres sterling à partir de 2021. Ce montant aux États-Unis coûte environ 860 USD.
 </t>
         </is>
       </c>
